--- a/Write up/101. Transfer Report/gannt Lie.xlsx
+++ b/Write up/101. Transfer Report/gannt Lie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamg\Desktop\Personal\PhD Research\PhD Research\PhD\Write up\101. Transfer Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7AEA64C-1B49-4643-990D-826A67E31FE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739729D3-601B-429B-85A8-2EF9C480F9E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F2C603B-9F7F-4118-B764-420EB79C2C41}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Thesis Write up</t>
   </si>
   <si>
-    <t>Clinical Trials</t>
-  </si>
-  <si>
     <t>Force Sensor Design</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Transfer Report Write up</t>
   </si>
   <si>
-    <t>Clinical Trials Analysis</t>
-  </si>
-  <si>
     <t>Designing Admittance Control</t>
   </si>
   <si>
@@ -79,6 +73,15 @@
   </si>
   <si>
     <t>System Rearchitecture</t>
+  </si>
+  <si>
+    <t>Human Based Trials Analysis</t>
+  </si>
+  <si>
+    <t>Human Based Trials</t>
+  </si>
+  <si>
+    <t>Ethicacs Application</t>
   </si>
 </sst>
 </file>
@@ -719,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63F0201-9C73-4C6C-8EC0-4B078F9FEA5E}">
-  <dimension ref="B2:AL18"/>
+  <dimension ref="B2:AL19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +891,7 @@
     </row>
     <row r="5" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
@@ -929,7 +932,7 @@
     </row>
     <row r="6" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="3"/>
@@ -970,7 +973,7 @@
     </row>
     <row r="7" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
@@ -1011,7 +1014,7 @@
     </row>
     <row r="8" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
@@ -1052,7 +1055,7 @@
     </row>
     <row r="9" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
@@ -1093,7 +1096,7 @@
     </row>
     <row r="10" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="2"/>
@@ -1134,7 +1137,7 @@
     </row>
     <row r="11" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="2"/>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="12" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="2"/>
@@ -1216,7 +1219,7 @@
     </row>
     <row r="13" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="2"/>
@@ -1257,7 +1260,7 @@
     </row>
     <row r="14" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="2"/>
@@ -1298,7 +1301,7 @@
     </row>
     <row r="15" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="2"/>
@@ -1339,7 +1342,7 @@
     </row>
     <row r="16" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="2"/>
@@ -1354,18 +1357,18 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
@@ -1380,7 +1383,7 @@
     </row>
     <row r="17" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="2"/>
@@ -1400,16 +1403,16 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
@@ -1419,46 +1422,87 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="8"/>
     </row>
-    <row r="18" spans="2:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="8"/>
+    </row>
+    <row r="19" spans="2:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="12"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
